--- a/POD_Excluded.xlsx
+++ b/POD_Excluded.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tarek Mahran\Pictures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tarek Mahran\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{602BDF8E-7E8A-4DEC-95BF-27127281B290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CADE55-E152-4BA2-90F7-C8B233BA1CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{5B47CC1A-8461-4682-B8BC-6BD2DADA04DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{5B47CC1A-8461-4682-B8BC-6BD2DADA04DE}"/>
   </bookViews>
   <sheets>
     <sheet name="POD_Excluded" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="64">
   <si>
     <t>Status</t>
   </si>
@@ -123,12 +123,120 @@
   </si>
   <si>
     <t>MDN0757</t>
+  </si>
+  <si>
+    <t>Site ID</t>
+  </si>
+  <si>
+    <t>Created At</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>CM20251005001100</t>
+  </si>
+  <si>
+    <t>WO-2025100539376102</t>
+  </si>
+  <si>
+    <t>RIY0070</t>
+  </si>
+  <si>
+    <t>Door Open Alarm atRIY0070@ SCECO</t>
+  </si>
+  <si>
+    <t>CM20251008000809</t>
+  </si>
+  <si>
+    <t>WO-2025100839602521</t>
+  </si>
+  <si>
+    <t>RIY0408</t>
+  </si>
+  <si>
+    <t>Door Open Alarm atRIY0408@ SCECO</t>
+  </si>
+  <si>
+    <t>CM20251012000347</t>
+  </si>
+  <si>
+    <t>WO-2025101239855664</t>
+  </si>
+  <si>
+    <t>Air-Condition 2 Alarm atRIY0070@ SCECO</t>
+  </si>
+  <si>
+    <t>CM20251012000349</t>
+  </si>
+  <si>
+    <t>WO-2025101239855667</t>
+  </si>
+  <si>
+    <t>Air-Condition 1 Alarm atRIY0070@ SCECO</t>
+  </si>
+  <si>
+    <t>CM20251012000425</t>
+  </si>
+  <si>
+    <t>WO-2025101239861643</t>
+  </si>
+  <si>
+    <t>CM20251012001199</t>
+  </si>
+  <si>
+    <t>WO-2025101239895738</t>
+  </si>
+  <si>
+    <t>CM20251012001200</t>
+  </si>
+  <si>
+    <t>WO-2025101239896968</t>
+  </si>
+  <si>
+    <t>CM20251012001201</t>
+  </si>
+  <si>
+    <t>WO-2025101239896851</t>
+  </si>
+  <si>
+    <t>CM20251012001202</t>
+  </si>
+  <si>
+    <t>WO-2025101239883846</t>
+  </si>
+  <si>
+    <t>CM20251012001203</t>
+  </si>
+  <si>
+    <t>WO-2025101239895759</t>
+  </si>
+  <si>
+    <t>CM20251012001204</t>
+  </si>
+  <si>
+    <t>WO-2025101239884254</t>
+  </si>
+  <si>
+    <t>CM20251012001205</t>
+  </si>
+  <si>
+    <t>WO-2025101239883855</t>
+  </si>
+  <si>
+    <t>CM20251012001206</t>
+  </si>
+  <si>
+    <t>WO-2025101239895570</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -195,16 +303,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -216,14 +334,378 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -259,263 +741,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -530,16 +755,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5EDD3398-82E9-4F47-A804-6DE796D0B6AB}" name="POD_Excluded" displayName="POD_Excluded" ref="A1:G8" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="9" tableBorderDxfId="10">
-  <autoFilter ref="A1:G8" xr:uid="{5EDD3398-82E9-4F47-A804-6DE796D0B6AB}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{367561BB-C501-4584-A061-0AB06E34C201}" name="Status" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{C34AC642-9068-4016-874E-BAA1D6216ECB}" name="Task ID" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{39055A45-7F98-458B-89DD-55FB0CF190C2}" name="Order ID" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{2C08E557-46C7-4559-9F2E-6A6AB3C7BD19}" name="TT ID" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{EBECD3F7-8AC2-435F-BC0C-7BBF5969F615}" name="TT Type" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{B8FCEE44-2024-47E9-83A0-AB44E7A091C4}" name="Region" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{D8A842A2-5725-4D78-BA01-41E074F2D808}" name="Site Name" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5EDD3398-82E9-4F47-A804-6DE796D0B6AB}" name="POD_Excluded" displayName="POD_Excluded" ref="A1:J8" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="A1:J8" xr:uid="{5EDD3398-82E9-4F47-A804-6DE796D0B6AB}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{367561BB-C501-4584-A061-0AB06E34C201}" name="Status" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{C34AC642-9068-4016-874E-BAA1D6216ECB}" name="Task ID" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{39055A45-7F98-458B-89DD-55FB0CF190C2}" name="Order ID" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{2C08E557-46C7-4559-9F2E-6A6AB3C7BD19}" name="TT ID" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{EBECD3F7-8AC2-435F-BC0C-7BBF5969F615}" name="TT Type" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{B8FCEE44-2024-47E9-83A0-AB44E7A091C4}" name="Region" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{F8012F2B-4C01-429A-8216-2A8B6A726AA4}" name="Site ID" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{D8A842A2-5725-4D78-BA01-41E074F2D808}" name="Site Name" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{54F2B62D-9BB3-49EE-9679-CCC8172888ED}" name="Created At" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{E55C36AA-3E83-4908-8794-22DCAC60C77A}" name="Title" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -862,46 +1090,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2991AF72-FEEC-4E39-9F69-CFE706A3AA5B}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.7109375" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,11 +1160,14 @@
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="9"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -943,11 +1186,14 @@
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I3" s="9"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -964,11 +1210,14 @@
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="9"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -985,11 +1234,14 @@
       <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I5" s="9"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1006,11 +1258,14 @@
       <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I6" s="9"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1027,29 +1282,425 @@
       <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="9">
+        <v>45935.666261574072</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="9">
+        <v>45938.62771990741</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="9">
+        <v>45942.314872685187</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="9">
+        <v>45942.314988425926</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="9">
+        <v>45942.376736111109</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="9">
+        <v>45942.787268518521</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="9">
+        <v>45942.787291666667</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="9">
+        <v>45942.787303240744</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="9">
+        <v>45942.787303240744</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="9">
+        <v>45942.787326388891</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="9">
+        <v>45942.787326388891</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="9">
+        <v>45942.787326388891</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="9">
+        <v>45942.787326388891</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/POD_Excluded.xlsx
+++ b/POD_Excluded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tarek Mahran\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CADE55-E152-4BA2-90F7-C8B233BA1CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3F7B65-2D12-43A3-B469-1B4D7F8C56C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{5B47CC1A-8461-4682-B8BC-6BD2DADA04DE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="267">
   <si>
     <t>Status</t>
   </si>
@@ -228,6 +228,615 @@
   </si>
   <si>
     <t>WO-2025101239895570</t>
+  </si>
+  <si>
+    <t>CM20251001000806</t>
+  </si>
+  <si>
+    <t>PCM-20251001-00001393</t>
+  </si>
+  <si>
+    <t>TT-20251001-01378</t>
+  </si>
+  <si>
+    <t>SRIY0042</t>
+  </si>
+  <si>
+    <t>CM20251002000991</t>
+  </si>
+  <si>
+    <t>PCM-20251002-00001553</t>
+  </si>
+  <si>
+    <t>TT-20250903-01304</t>
+  </si>
+  <si>
+    <t>SRIY0073</t>
+  </si>
+  <si>
+    <t>CM20251002000992</t>
+  </si>
+  <si>
+    <t>PCM-20251002-00001554</t>
+  </si>
+  <si>
+    <t>CM20251004000081</t>
+  </si>
+  <si>
+    <t>PCM-20251004-00000159</t>
+  </si>
+  <si>
+    <t>TT-20251004-00191</t>
+  </si>
+  <si>
+    <t>RIY0643</t>
+  </si>
+  <si>
+    <t>CM20251004001174</t>
+  </si>
+  <si>
+    <t>PCM-20251004-00001893</t>
+  </si>
+  <si>
+    <t>TT-20251004-01908</t>
+  </si>
+  <si>
+    <t>RIY0496</t>
+  </si>
+  <si>
+    <t>CM20251004001176</t>
+  </si>
+  <si>
+    <t>PCM-20251004-00001895</t>
+  </si>
+  <si>
+    <t>TT-20251004-01911</t>
+  </si>
+  <si>
+    <t>CM20251004001177</t>
+  </si>
+  <si>
+    <t>PCM-20251004-00001896</t>
+  </si>
+  <si>
+    <t>TT-20251004-01912</t>
+  </si>
+  <si>
+    <t>CM20251006000267</t>
+  </si>
+  <si>
+    <t>PCM-20251006-00000517</t>
+  </si>
+  <si>
+    <t>TT-20251006-00705</t>
+  </si>
+  <si>
+    <t>MDN0325</t>
+  </si>
+  <si>
+    <t>CM20251003000918</t>
+  </si>
+  <si>
+    <t>PCM-20251003-00001529</t>
+  </si>
+  <si>
+    <t>TT-20251003-01528</t>
+  </si>
+  <si>
+    <t>HLHD0710</t>
+  </si>
+  <si>
+    <t>CM20251003000917</t>
+  </si>
+  <si>
+    <t>PCM-20251003-00001527</t>
+  </si>
+  <si>
+    <t>TT-20251003-01542</t>
+  </si>
+  <si>
+    <t>HLHD0709</t>
+  </si>
+  <si>
+    <t>CM20251004001281</t>
+  </si>
+  <si>
+    <t>PCM-20251004-00002090</t>
+  </si>
+  <si>
+    <t>CM20251008000857</t>
+  </si>
+  <si>
+    <t>PCM-20251008-00001662</t>
+  </si>
+  <si>
+    <t>TT-20251008-01710</t>
+  </si>
+  <si>
+    <t>MDYB2549</t>
+  </si>
+  <si>
+    <t>CM20251001000116</t>
+  </si>
+  <si>
+    <t>PCM-20251001-00000214</t>
+  </si>
+  <si>
+    <t>TT-20250930-02028</t>
+  </si>
+  <si>
+    <t>Region_1</t>
+  </si>
+  <si>
+    <t>SAR0074</t>
+  </si>
+  <si>
+    <t>CM20251001000130</t>
+  </si>
+  <si>
+    <t>PCM-20251001-00000234</t>
+  </si>
+  <si>
+    <t>TT-20250930-02215</t>
+  </si>
+  <si>
+    <t>SAR0076</t>
+  </si>
+  <si>
+    <t>CM20251001000644</t>
+  </si>
+  <si>
+    <t>PCM-20251001-00001167</t>
+  </si>
+  <si>
+    <t>TT-20251001-01074</t>
+  </si>
+  <si>
+    <t>DAM0270</t>
+  </si>
+  <si>
+    <t>CM20251001000926</t>
+  </si>
+  <si>
+    <t>PCM-20251001-00001554</t>
+  </si>
+  <si>
+    <t>TT-20251001-01483</t>
+  </si>
+  <si>
+    <t>SHMBY0039</t>
+  </si>
+  <si>
+    <t>CM20251001000964</t>
+  </si>
+  <si>
+    <t>PCM-20251001-00001620</t>
+  </si>
+  <si>
+    <t>TT-20251001-01556</t>
+  </si>
+  <si>
+    <t>SHMBY0043</t>
+  </si>
+  <si>
+    <t>CM20251001000989</t>
+  </si>
+  <si>
+    <t>PCM-20251001-00001653</t>
+  </si>
+  <si>
+    <t>TT-20251001-01573</t>
+  </si>
+  <si>
+    <t>SHMBY0044</t>
+  </si>
+  <si>
+    <t>CM20251001001138</t>
+  </si>
+  <si>
+    <t>PCM-20251001-00001885</t>
+  </si>
+  <si>
+    <t>TT-20251001-01798</t>
+  </si>
+  <si>
+    <t>SHMBY0040</t>
+  </si>
+  <si>
+    <t>CM20251001001272</t>
+  </si>
+  <si>
+    <t>PCM-20251001-00002103</t>
+  </si>
+  <si>
+    <t>TT-20251001-01863</t>
+  </si>
+  <si>
+    <t>KBR0171</t>
+  </si>
+  <si>
+    <t>CM20251002001538</t>
+  </si>
+  <si>
+    <t>PCM-20251002-00002387</t>
+  </si>
+  <si>
+    <t>TT-20251002-02666</t>
+  </si>
+  <si>
+    <t>DMHF0079</t>
+  </si>
+  <si>
+    <t>CM20251005000398</t>
+  </si>
+  <si>
+    <t>PCM-20251005-00001186</t>
+  </si>
+  <si>
+    <t>TT-20251005-01319</t>
+  </si>
+  <si>
+    <t>KBR6093</t>
+  </si>
+  <si>
+    <t>CM20251005000601</t>
+  </si>
+  <si>
+    <t>PCM-20251005-00001520</t>
+  </si>
+  <si>
+    <t>TT-20251005-01309</t>
+  </si>
+  <si>
+    <t>DAM2729</t>
+  </si>
+  <si>
+    <t>CM20251006000176</t>
+  </si>
+  <si>
+    <t>PCM-20251006-00000361</t>
+  </si>
+  <si>
+    <t>TT-20251006-00549</t>
+  </si>
+  <si>
+    <t>DAM0389</t>
+  </si>
+  <si>
+    <t>CM20251006000247</t>
+  </si>
+  <si>
+    <t>PCM-20251006-00000487</t>
+  </si>
+  <si>
+    <t>TT-20251006-00677</t>
+  </si>
+  <si>
+    <t>DAM2820</t>
+  </si>
+  <si>
+    <t>CM20251006000318</t>
+  </si>
+  <si>
+    <t>PCM-20251006-00000604</t>
+  </si>
+  <si>
+    <t>TT-20251006-00800</t>
+  </si>
+  <si>
+    <t>JB1</t>
+  </si>
+  <si>
+    <t>CM20251006001308</t>
+  </si>
+  <si>
+    <t>PCM-20251006-00002228</t>
+  </si>
+  <si>
+    <t>TT-20251006-02316</t>
+  </si>
+  <si>
+    <t>DAM2802</t>
+  </si>
+  <si>
+    <t>CM20251007000074</t>
+  </si>
+  <si>
+    <t>PCM-20251007-00000145</t>
+  </si>
+  <si>
+    <t>TT-20251007-00162</t>
+  </si>
+  <si>
+    <t>RAF0095</t>
+  </si>
+  <si>
+    <t>CM20251007001218</t>
+  </si>
+  <si>
+    <t>PCM-20251007-00002085</t>
+  </si>
+  <si>
+    <t>TT-20251007-01644</t>
+  </si>
+  <si>
+    <t>KBR2788</t>
+  </si>
+  <si>
+    <t>CM20251007001335</t>
+  </si>
+  <si>
+    <t>PCM-20251007-00002292</t>
+  </si>
+  <si>
+    <t>TT-20251007-02050</t>
+  </si>
+  <si>
+    <t>TRT2996</t>
+  </si>
+  <si>
+    <t>CM20251010000047</t>
+  </si>
+  <si>
+    <t>PCM-20251010-00000111</t>
+  </si>
+  <si>
+    <t>TT-20251010-00105</t>
+  </si>
+  <si>
+    <t>RYDM0075</t>
+  </si>
+  <si>
+    <t>CM20251010000168</t>
+  </si>
+  <si>
+    <t>PCM-20251010-00000325</t>
+  </si>
+  <si>
+    <t>TT-20251010-00393</t>
+  </si>
+  <si>
+    <t>ARR0518</t>
+  </si>
+  <si>
+    <t>CM20251011000088</t>
+  </si>
+  <si>
+    <t>PCM-20251011-00000180</t>
+  </si>
+  <si>
+    <t>TT-20251011-00188</t>
+  </si>
+  <si>
+    <t>QRY2605</t>
+  </si>
+  <si>
+    <t>CM20251012001555</t>
+  </si>
+  <si>
+    <t>PCM-20251012-00002447</t>
+  </si>
+  <si>
+    <t>TT-20251012-02529</t>
+  </si>
+  <si>
+    <t>JBL2927</t>
+  </si>
+  <si>
+    <t>CM20251013000003</t>
+  </si>
+  <si>
+    <t>PCM-20251013-00000008</t>
+  </si>
+  <si>
+    <t>TT-20251013-00005</t>
+  </si>
+  <si>
+    <t>ARM2759</t>
+  </si>
+  <si>
+    <t>2025-10-01 14:56:59</t>
+  </si>
+  <si>
+    <t>2025-10-02 15:36:12</t>
+  </si>
+  <si>
+    <t>2025-10-02 15:36:45</t>
+  </si>
+  <si>
+    <t>2025-10-04 03:24:24</t>
+  </si>
+  <si>
+    <t>2025-10-04 21:06:57</t>
+  </si>
+  <si>
+    <t>2025-10-04 21:09:02</t>
+  </si>
+  <si>
+    <t>2025-10-04 21:09:33</t>
+  </si>
+  <si>
+    <t>2025-10-06 07:05:31</t>
+  </si>
+  <si>
+    <t>2025-10-03 20:30:47</t>
+  </si>
+  <si>
+    <t>2025-10-03 20:30:27</t>
+  </si>
+  <si>
+    <t>2025-10-04 23:48:35</t>
+  </si>
+  <si>
+    <t>2025-10-08 15:21:14</t>
+  </si>
+  <si>
+    <t>2025-10-01 02:31:32</t>
+  </si>
+  <si>
+    <t>2025-10-01 02:49:43</t>
+  </si>
+  <si>
+    <t>2025-10-01 12:31:51</t>
+  </si>
+  <si>
+    <t>2025-10-01 15:53:57</t>
+  </si>
+  <si>
+    <t>2025-10-01 16:31:15</t>
+  </si>
+  <si>
+    <t>2025-10-01 16:50:10</t>
+  </si>
+  <si>
+    <t>2025-10-01 18:38:03</t>
+  </si>
+  <si>
+    <t>2025-10-01 21:30:27</t>
+  </si>
+  <si>
+    <t>2025-10-02 23:56:01</t>
+  </si>
+  <si>
+    <t>2025-10-05 06:58:29</t>
+  </si>
+  <si>
+    <t>2025-10-05 10:01:56</t>
+  </si>
+  <si>
+    <t>2025-10-06 04:50:08</t>
+  </si>
+  <si>
+    <t>2025-10-06 06:44:53</t>
+  </si>
+  <si>
+    <t>2025-10-06 08:10:34</t>
+  </si>
+  <si>
+    <t>2025-10-06 22:31:53</t>
+  </si>
+  <si>
+    <t>2025-10-07 01:48:57</t>
+  </si>
+  <si>
+    <t>2025-10-07 19:08:59</t>
+  </si>
+  <si>
+    <t>2025-10-07 21:14:01</t>
+  </si>
+  <si>
+    <t>2025-10-10 01:38:31</t>
+  </si>
+  <si>
+    <t>2025-10-10 06:55:50</t>
+  </si>
+  <si>
+    <t>2025-10-11 02:38:51</t>
+  </si>
+  <si>
+    <t>2025-10-12 22:47:53</t>
+  </si>
+  <si>
+    <t>2025-10-13 00:10:32</t>
+  </si>
+  <si>
+    <t>ETH_LOS at SRIY0042/SRIY0043_NE_1 @ Sceco</t>
+  </si>
+  <si>
+    <t>ETH_LOS at SRIY0073/SRIY0074_NE_1 @ Sceco</t>
+  </si>
+  <si>
+    <t>ETH_LOS at RIY0643_NE_24_H @ Sceco</t>
+  </si>
+  <si>
+    <t>RF Unit Maintenance Link Failure at RIY0496-P2_SRAN @ Sceco</t>
+  </si>
+  <si>
+    <t>BBU CPRI Optical Module Fault at RIY0496-P2_SRAN @ Sceco</t>
+  </si>
+  <si>
+    <t>NR Cell Unavailable at RIY0496-P2_SRAN @ Sceco</t>
+  </si>
+  <si>
+    <t>GSM Local Cell Capability Decline at MDN2M1325-P1-HRM @ Sceco</t>
+  </si>
+  <si>
+    <t>External Clock Reference Problem at HLHD2M5710-P3 @ Generator_SG</t>
+  </si>
+  <si>
+    <t>External Clock Reference Problem at HLHD2M5709-P3 @ Generator_SG</t>
+  </si>
+  <si>
+    <t>MW RTN Observing MW_BER_SD,MW_BER_SD,MW_BER_SD,MW_BER_SD,MW_BER_SD at MDYB2549_NE_1</t>
+  </si>
+  <si>
+    <t>2(2G) 2(3G) 2(LTE) sites down under SAR0073-P1-HUB-USF,SAR0074-P1-HUB-USF/SK1BSCH01 @ Generator_DG</t>
+  </si>
+  <si>
+    <t>2(2G) 2(3G) 2(LTE) sites down under SAR0076-P1-HUB-USF,SAR0075-P1-DIA-HUB-USF/SK1BSCH01 @ Generator_DG</t>
+  </si>
+  <si>
+    <t>Cell RX Channel Interference Noise Power Unbalanced at DAM2M7270-P1-SHOP-HUB-WDM-L800 @ Sceco</t>
+  </si>
+  <si>
+    <t>GPS Locked Satellites Insufficient at SHMBY0039-P3_SRAN @ Sceco</t>
+  </si>
+  <si>
+    <t>GPS Locked Satellites Insufficient at SHMBY0043-P3_SRAN @ Sceco</t>
+  </si>
+  <si>
+    <t>GPS Locked Satellites Insufficient at SHMBY0044-P3_SRAN @ Sceco</t>
+  </si>
+  <si>
+    <t>GPS Locked Satellites Insufficient at SHMBY0040-P3_SRAN @ Sceco</t>
+  </si>
+  <si>
+    <t>GNSS Locked Satellites Insufficient at KBR0171-P3_SRAN @ Sceco</t>
+  </si>
+  <si>
+    <t>1(2G) sites down under DMHF0079-P3/R1_HF_HWBSC01 @ Generator_SG</t>
+  </si>
+  <si>
+    <t>RFC Port Underpower at KBR6093-DCU1 @ Sceco</t>
+  </si>
+  <si>
+    <t>GNSS Clock Output Unavailable at DAM2729-P2_SRAN @ Sceco</t>
+  </si>
+  <si>
+    <t>OSC_LOS at DAM0389_HYB @ Sceco</t>
+  </si>
+  <si>
+    <t>GNSS Locked Satellites Insufficient at DAM2820-P3_SRAN @ Generator_SG</t>
+  </si>
+  <si>
+    <t>LINK DOWN  at JB1-ASG-01 TT-20250915-00318 @ Sceco_STB</t>
+  </si>
+  <si>
+    <t>Cell RX Channel Interference Noise Power Unbalanced at DAM2M8802-CA-L800-FWA-P1-VIP @ Sceco</t>
+  </si>
+  <si>
+    <t>RF Unit TX Channel Gain Out of Range at RAF0095-P2_SRAN @ Sceco</t>
+  </si>
+  <si>
+    <t>1(5G) sites down under KBR2788-P3_SRAN @ Sceco</t>
+  </si>
+  <si>
+    <t>2(2G) 1(3G) 2(LTE) sites down under TRT2996-P2,TRT0764-P3/R1_DM_HWBSC01 @ Sceco</t>
+  </si>
+  <si>
+    <t>1(LTE) sites down under RYDM0075-L800-P3 @ Sceco_STB</t>
+  </si>
+  <si>
+    <t>Overlow Input Power of Optical Module at Arar-0518-NE40E-X8-PE-01 @ Sceco_STB</t>
+  </si>
+  <si>
+    <t>RF Unit RX Channel RTWP/RSSI Unbalanced at QRY2605-P3-USF_SRAN @ Sceco</t>
+  </si>
+  <si>
+    <t>BUS_ERR at JBL2927_NE_1_SDB @ Sceco</t>
+  </si>
+  <si>
+    <t>1(LTE) sites down under ARM2759-P1_SRAN-PC @ Power Cube</t>
   </si>
 </sst>
 </file>
@@ -235,7 +844,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -343,50 +952,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -414,6 +991,38 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -764,10 +1373,10 @@
     <tableColumn id="4" xr3:uid="{2C08E557-46C7-4559-9F2E-6A6AB3C7BD19}" name="TT ID" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{EBECD3F7-8AC2-435F-BC0C-7BBF5969F615}" name="TT Type" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{B8FCEE44-2024-47E9-83A0-AB44E7A091C4}" name="Region" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{F8012F2B-4C01-429A-8216-2A8B6A726AA4}" name="Site ID" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{D8A842A2-5725-4D78-BA01-41E074F2D808}" name="Site Name" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{54F2B62D-9BB3-49EE-9679-CCC8172888ED}" name="Created At" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{E55C36AA-3E83-4908-8794-22DCAC60C77A}" name="Title" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{F8012F2B-4C01-429A-8216-2A8B6A726AA4}" name="Site ID" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{D8A842A2-5725-4D78-BA01-41E074F2D808}" name="Site Name" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{54F2B62D-9BB3-49EE-9679-CCC8172888ED}" name="Created At" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{E55C36AA-3E83-4908-8794-22DCAC60C77A}" name="Title" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1090,7 +1699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2991AF72-FEEC-4E39-9F69-CFE706A3AA5B}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -1106,7 +1715,7 @@
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="89.140625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1701,6 +2310,916 @@
       </c>
       <c r="J21" s="6" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/POD_Excluded.xlsx
+++ b/POD_Excluded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tarek Mahran\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3F7B65-2D12-43A3-B469-1B4D7F8C56C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03AB634-DC32-4D2A-9695-024B2E0178D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{5B47CC1A-8461-4682-B8BC-6BD2DADA04DE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="282">
   <si>
     <t>Status</t>
   </si>
@@ -98,33 +98,6 @@
     <t>MDN0016</t>
   </si>
   <si>
-    <t>Departed</t>
-  </si>
-  <si>
-    <t>CM-20250917000117</t>
-  </si>
-  <si>
-    <t>YNB0678</t>
-  </si>
-  <si>
-    <t>CM-20250917000118</t>
-  </si>
-  <si>
-    <t>MDN0819</t>
-  </si>
-  <si>
-    <t>CM-20250917000120</t>
-  </si>
-  <si>
-    <t>MDN0662</t>
-  </si>
-  <si>
-    <t>CM-20250917000121</t>
-  </si>
-  <si>
-    <t>MDN0757</t>
-  </si>
-  <si>
     <t>Site ID</t>
   </si>
   <si>
@@ -837,6 +810,78 @@
   </si>
   <si>
     <t>1(LTE) sites down under ARM2759-P1_SRAN-PC @ Power Cube</t>
+  </si>
+  <si>
+    <t>CM20251002001472</t>
+  </si>
+  <si>
+    <t>PCM-20251002-00002279</t>
+  </si>
+  <si>
+    <t>TT-20251002-02572</t>
+  </si>
+  <si>
+    <t>RIY0220</t>
+  </si>
+  <si>
+    <t>BBU CPRI Interface Error at RIY0220-P2_SRAN @ Sceco</t>
+  </si>
+  <si>
+    <t>CM20251003000097</t>
+  </si>
+  <si>
+    <t>PCM-20251003-00000166</t>
+  </si>
+  <si>
+    <t>TT-20251002-02158</t>
+  </si>
+  <si>
+    <t>RIY0328</t>
+  </si>
+  <si>
+    <t>Physical Port Down at RIY0328-ZRi02-3-CSG-04 @ Generator_SG</t>
+  </si>
+  <si>
+    <t>CM20251009000178</t>
+  </si>
+  <si>
+    <t>PCM-20251009-00000302</t>
+  </si>
+  <si>
+    <t>TT-20251009-00331</t>
+  </si>
+  <si>
+    <t>SRYD0240</t>
+  </si>
+  <si>
+    <t>GPS Locked Satellites Insufficient at SRYD0240-P1-VIP_SRAN @ Sceco</t>
+  </si>
+  <si>
+    <t>CM20251010000034</t>
+  </si>
+  <si>
+    <t>PCM-20251010-00000069</t>
+  </si>
+  <si>
+    <t>TT-20251010-00046</t>
+  </si>
+  <si>
+    <t>BUR0048</t>
+  </si>
+  <si>
+    <t>IP PM Activation Failure at BUR0048-P2_SRAN @ Sceco</t>
+  </si>
+  <si>
+    <t>2025-10-02 22:31:14</t>
+  </si>
+  <si>
+    <t>2025-10-03 02:39:39</t>
+  </si>
+  <si>
+    <t>2025-10-09 04:27:55</t>
+  </si>
+  <si>
+    <t>2025-10-10 01:11:36</t>
   </si>
 </sst>
 </file>
@@ -846,7 +891,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -855,6 +900,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -875,7 +927,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -904,10 +956,21 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="medium">
         <color indexed="64"/>
-      </right>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -916,10 +979,10 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
-      </right>
-      <top/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -929,41 +992,107 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF4B084"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -982,15 +1111,15 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top/>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1275,9 +1404,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
         <right style="medium">
           <color indexed="64"/>
         </right>
@@ -1287,67 +1413,6 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF4B084"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1364,21 +1429,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5EDD3398-82E9-4F47-A804-6DE796D0B6AB}" name="POD_Excluded" displayName="POD_Excluded" ref="A1:J8" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
-  <autoFilter ref="A1:J8" xr:uid="{5EDD3398-82E9-4F47-A804-6DE796D0B6AB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2F075906-AD1C-4B56-8853-FE996ADBAB87}" name="Table1" displayName="Table1" ref="A1:J56" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="12">
+  <autoFilter ref="A1:J56" xr:uid="{2F075906-AD1C-4B56-8853-FE996ADBAB87}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{367561BB-C501-4584-A061-0AB06E34C201}" name="Status" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{C34AC642-9068-4016-874E-BAA1D6216ECB}" name="Task ID" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{39055A45-7F98-458B-89DD-55FB0CF190C2}" name="Order ID" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{2C08E557-46C7-4559-9F2E-6A6AB3C7BD19}" name="TT ID" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{EBECD3F7-8AC2-435F-BC0C-7BBF5969F615}" name="TT Type" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{B8FCEE44-2024-47E9-83A0-AB44E7A091C4}" name="Region" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{F8012F2B-4C01-429A-8216-2A8B6A726AA4}" name="Site ID" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{D8A842A2-5725-4D78-BA01-41E074F2D808}" name="Site Name" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{54F2B62D-9BB3-49EE-9679-CCC8172888ED}" name="Created At" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{E55C36AA-3E83-4908-8794-22DCAC60C77A}" name="Title" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{43363CD6-9483-4876-A077-B10DFB085017}" name="Status" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{9397EEA2-A207-4392-BA10-04E20DD4D84A}" name="Task ID" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{74A18C29-8F12-4D9B-9AFF-907B8E42716A}" name="Order ID" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{123C0929-82AE-457F-AC79-BC24C92B1562}" name="TT ID" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{60FA2557-2763-48ED-A9BD-3448CFC68159}" name="TT Type" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{2051F985-51B1-4776-BBD5-B52F46DD8924}" name="Region" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{ACF1D07C-0D5B-41A9-BC03-2B589D700370}" name="Site ID" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{625F9345-4195-4FE8-81AC-0F2DA896E8DE}" name="Site Name" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{28E7ACDD-4657-4337-8D74-1E67D09420C1}" name="Created At" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{4740B577-E2FF-459A-AE2A-32C2FB60CF0E}" name="Title" dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1699,10 +1764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2991AF72-FEEC-4E39-9F69-CFE706A3AA5B}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1710,228 +1775,252 @@
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="89.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="89.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="6">
+        <v>45935.666261574072</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="H6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="6">
+        <v>45938.62771990741</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="5" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="G7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="6">
+        <v>45942.314872685187</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="G8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="6"/>
+      <c r="H8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="8">
+        <v>45942.314988425926</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
@@ -1940,28 +2029,28 @@
         <v>11</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="9">
-        <v>45935.666261574072</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="I9" s="3">
+        <v>45942.376736111109</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
@@ -1970,28 +2059,28 @@
         <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="9">
-        <v>45938.62771990741</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="I10" s="3">
+        <v>45942.787268518521</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
@@ -2000,16 +2089,16 @@
         <v>11</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="9">
-        <v>45942.314872685187</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>42</v>
+        <v>25</v>
+      </c>
+      <c r="I11" s="3">
+        <v>45942.787291666667</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2030,28 +2119,28 @@
         <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="9">
-        <v>45942.314988425926</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>45</v>
+        <v>25</v>
+      </c>
+      <c r="I12" s="3">
+        <v>45942.787303240744</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
@@ -2060,28 +2149,28 @@
         <v>11</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="9">
-        <v>45942.376736111109</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="I13" s="3">
+        <v>45942.787303240744</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
@@ -2090,28 +2179,28 @@
         <v>11</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="9">
-        <v>45942.787268518521</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>45</v>
+        <v>25</v>
+      </c>
+      <c r="I14" s="3">
+        <v>45942.787326388891</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>10</v>
@@ -2120,28 +2209,28 @@
         <v>11</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="9">
-        <v>45942.787291666667</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>45</v>
+        <v>25</v>
+      </c>
+      <c r="I15" s="3">
+        <v>45942.787326388891</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
@@ -2150,28 +2239,28 @@
         <v>11</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="9">
-        <v>45942.787303240744</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>45</v>
+        <v>25</v>
+      </c>
+      <c r="I16" s="3">
+        <v>45942.787326388891</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>10</v>
@@ -2180,148 +2269,132 @@
         <v>11</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="9">
-        <v>45942.787303240744</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>45</v>
+        <v>25</v>
+      </c>
+      <c r="I17" s="3">
+        <v>45942.787326388891</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="9">
-        <v>45942.787326388891</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="9">
-        <v>45942.787326388891</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>42</v>
+        <v>62</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="9">
-        <v>45942.787326388891</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>42</v>
+        <v>58</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="9">
-        <v>45942.787326388891</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>35</v>
+        <v>68</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
@@ -2329,25 +2402,25 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>234</v>
+        <v>72</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
@@ -2355,25 +2428,25 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>235</v>
+        <v>72</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
@@ -2381,129 +2454,129 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>234</v>
+        <v>72</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>236</v>
+        <v>82</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>237</v>
+        <v>86</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>238</v>
+        <v>90</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>239</v>
+        <v>90</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
@@ -2511,716 +2584,872 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>240</v>
+        <v>96</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>241</v>
+        <v>101</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>242</v>
+        <v>105</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>242</v>
+        <v>109</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>243</v>
+        <v>113</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>244</v>
+        <v>117</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>245</v>
+        <v>121</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>246</v>
+        <v>125</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>247</v>
+        <v>129</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>248</v>
+        <v>133</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>249</v>
+        <v>137</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>250</v>
+        <v>141</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>251</v>
+        <v>145</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>252</v>
+        <v>149</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>253</v>
+        <v>153</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>254</v>
+        <v>157</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>255</v>
+        <v>161</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>256</v>
+        <v>165</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>257</v>
+        <v>169</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>258</v>
+        <v>173</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>259</v>
+        <v>177</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>260</v>
+        <v>181</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>261</v>
+        <v>185</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>262</v>
+        <v>189</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>183</v>
+        <v>258</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>184</v>
+        <v>259</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>187</v>
+        <v>263</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>188</v>
+        <v>264</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>189</v>
+        <v>265</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>191</v>
+        <v>268</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>192</v>
+        <v>269</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>193</v>
+        <v>270</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>265</v>
+        <v>271</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>195</v>
+        <v>273</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>196</v>
+        <v>274</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>197</v>
+        <v>275</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>266</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I57"/>
+      <c r="J57"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I58"/>
+      <c r="J58"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I59"/>
+      <c r="J59"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I60"/>
+      <c r="J60"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I61"/>
+      <c r="J61"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I62"/>
+      <c r="J62"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I63"/>
+      <c r="J63"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I64"/>
+      <c r="J64"/>
+    </row>
+    <row r="65" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I65"/>
+      <c r="J65"/>
+    </row>
+    <row r="66" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I66"/>
+      <c r="J66"/>
+    </row>
+    <row r="67" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I67"/>
+      <c r="J67"/>
+    </row>
+    <row r="68" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I68"/>
+      <c r="J68"/>
+    </row>
+    <row r="69" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I69"/>
+      <c r="J69"/>
+    </row>
+    <row r="70" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I70"/>
+      <c r="J70"/>
+    </row>
+    <row r="71" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I71"/>
+      <c r="J71"/>
+    </row>
+    <row r="72" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I72"/>
+      <c r="J72"/>
+    </row>
+    <row r="73" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I73"/>
+      <c r="J73"/>
+    </row>
+    <row r="74" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I74"/>
+      <c r="J74"/>
+    </row>
+    <row r="75" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I75"/>
+      <c r="J75"/>
+    </row>
+    <row r="76" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I76"/>
+      <c r="J76"/>
+    </row>
+    <row r="77" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I77"/>
+      <c r="J77"/>
+    </row>
+    <row r="78" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I78"/>
+      <c r="J78"/>
+    </row>
+    <row r="79" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I79"/>
+      <c r="J79"/>
+    </row>
+    <row r="80" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I80"/>
+      <c r="J80"/>
+    </row>
+    <row r="81" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I81"/>
+      <c r="J81"/>
+    </row>
+    <row r="82" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I82"/>
+      <c r="J82"/>
+    </row>
+    <row r="83" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I83"/>
+      <c r="J83"/>
+    </row>
+    <row r="84" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I84"/>
+      <c r="J84"/>
+    </row>
+    <row r="85" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I85"/>
+      <c r="J85"/>
+    </row>
+    <row r="86" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I86"/>
+      <c r="J86"/>
+    </row>
+    <row r="87" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I87"/>
+      <c r="J87"/>
+    </row>
+    <row r="88" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I88"/>
+      <c r="J88"/>
+    </row>
+    <row r="89" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I89"/>
+      <c r="J89"/>
+    </row>
+    <row r="90" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I90"/>
+      <c r="J90"/>
+    </row>
+    <row r="91" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I91"/>
+      <c r="J91"/>
+    </row>
+    <row r="92" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I92"/>
+      <c r="J92"/>
+    </row>
+    <row r="93" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I93"/>
+      <c r="J93"/>
+    </row>
+    <row r="94" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I94"/>
+      <c r="J94"/>
+    </row>
+    <row r="95" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I95"/>
+      <c r="J95"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/POD_Excluded.xlsx
+++ b/POD_Excluded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tarek Mahran\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03AB634-DC32-4D2A-9695-024B2E0178D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E868A3D-F7BC-4689-89C1-F3D1F1F5F8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{5B47CC1A-8461-4682-B8BC-6BD2DADA04DE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="311">
   <si>
     <t>Status</t>
   </si>
@@ -882,6 +882,93 @@
   </si>
   <si>
     <t>2025-10-10 01:11:36</t>
+  </si>
+  <si>
+    <t>CM20251004000621</t>
+  </si>
+  <si>
+    <t>PCM-20251004-00001009</t>
+  </si>
+  <si>
+    <t>TT-20251004-00809</t>
+  </si>
+  <si>
+    <t>CM20251005000096</t>
+  </si>
+  <si>
+    <t>PCM-20251005-00000723</t>
+  </si>
+  <si>
+    <t>TT-20251004-01712</t>
+  </si>
+  <si>
+    <t>CM20251005000138</t>
+  </si>
+  <si>
+    <t>PCM-20251005-00000797</t>
+  </si>
+  <si>
+    <t>TT-20251005-00852</t>
+  </si>
+  <si>
+    <t>CM20251005000645</t>
+  </si>
+  <si>
+    <t>PCM-20251005-00001592</t>
+  </si>
+  <si>
+    <t>TT-20251005-01568</t>
+  </si>
+  <si>
+    <t>CM20251007000454</t>
+  </si>
+  <si>
+    <t>PCM-20251007-00000864</t>
+  </si>
+  <si>
+    <t>TT-20251007-00353</t>
+  </si>
+  <si>
+    <t>Region_6</t>
+  </si>
+  <si>
+    <t>WDS0920</t>
+  </si>
+  <si>
+    <t>1(2G/5G) sites down under WDS0920-P2-USF/WDS0920-P2-USF @ Generator_SG</t>
+  </si>
+  <si>
+    <t>RYAB0648</t>
+  </si>
+  <si>
+    <t>BASE STATION SERVICE PROBLEM (Rx signal level failure) at RYAB0648-GSM-UMTS-P1-HUB-USF (Ref:TT-20250927-00484) @ Sceco_STB</t>
+  </si>
+  <si>
+    <t>FIF0045</t>
+  </si>
+  <si>
+    <t>BASE STATION SERVICE PROBLEM (TX out of order)  at FIF1M7045-P2-CA-L800 @ Sceco</t>
+  </si>
+  <si>
+    <t>SMT0300</t>
+  </si>
+  <si>
+    <t>CELL SERVICE PROBLEM (Cell disabled due to unknown problem; logs collected)  at SMT1MT0300-P3 @ Sceco</t>
+  </si>
+  <si>
+    <t>2025-10-04 12:33:20</t>
+  </si>
+  <si>
+    <t>2025-10-05 01:48:08</t>
+  </si>
+  <si>
+    <t>2025-10-05 02:57:45</t>
+  </si>
+  <si>
+    <t>2025-10-05 10:26:52</t>
+  </si>
+  <si>
+    <t>2025-10-07 09:20:50</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1115,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1039,60 +1126,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF4B084"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1415,6 +1448,60 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF4B084"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1429,19 +1516,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2F075906-AD1C-4B56-8853-FE996ADBAB87}" name="Table1" displayName="Table1" ref="A1:J56" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="12">
-  <autoFilter ref="A1:J56" xr:uid="{2F075906-AD1C-4B56-8853-FE996ADBAB87}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2F075906-AD1C-4B56-8853-FE996ADBAB87}" name="Table1" displayName="Table1" ref="A1:J61" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A1:J61" xr:uid="{2F075906-AD1C-4B56-8853-FE996ADBAB87}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{43363CD6-9483-4876-A077-B10DFB085017}" name="Status" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{9397EEA2-A207-4392-BA10-04E20DD4D84A}" name="Task ID" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{74A18C29-8F12-4D9B-9AFF-907B8E42716A}" name="Order ID" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{123C0929-82AE-457F-AC79-BC24C92B1562}" name="TT ID" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{60FA2557-2763-48ED-A9BD-3448CFC68159}" name="TT Type" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{2051F985-51B1-4776-BBD5-B52F46DD8924}" name="Region" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{ACF1D07C-0D5B-41A9-BC03-2B589D700370}" name="Site ID" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{625F9345-4195-4FE8-81AC-0F2DA896E8DE}" name="Site Name" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{28E7ACDD-4657-4337-8D74-1E67D09420C1}" name="Created At" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{4740B577-E2FF-459A-AE2A-32C2FB60CF0E}" name="Title" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{43363CD6-9483-4876-A077-B10DFB085017}" name="Status" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{9397EEA2-A207-4392-BA10-04E20DD4D84A}" name="Task ID" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{74A18C29-8F12-4D9B-9AFF-907B8E42716A}" name="Order ID" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{123C0929-82AE-457F-AC79-BC24C92B1562}" name="TT ID" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{60FA2557-2763-48ED-A9BD-3448CFC68159}" name="TT Type" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{2051F985-51B1-4776-BBD5-B52F46DD8924}" name="Region" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{ACF1D07C-0D5B-41A9-BC03-2B589D700370}" name="Site ID" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{625F9345-4195-4FE8-81AC-0F2DA896E8DE}" name="Site Name" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{28E7ACDD-4657-4337-8D74-1E67D09420C1}" name="Created At" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{4740B577-E2FF-459A-AE2A-32C2FB60CF0E}" name="Title" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1764,10 +1851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2991AF72-FEEC-4E39-9F69-CFE706A3AA5B}">
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3295,25 +3382,135 @@
         <v>277</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I57"/>
-      <c r="J57"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I58"/>
-      <c r="J58"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I59"/>
-      <c r="J59"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I60"/>
-      <c r="J60"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I61"/>
-      <c r="J61"/>
+    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I62"/>
@@ -3450,6 +3647,26 @@
     <row r="95" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I95"/>
       <c r="J95"/>
+    </row>
+    <row r="96" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I96"/>
+      <c r="J96"/>
+    </row>
+    <row r="97" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I97"/>
+      <c r="J97"/>
+    </row>
+    <row r="98" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I98"/>
+      <c r="J98"/>
+    </row>
+    <row r="99" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I99"/>
+      <c r="J99"/>
+    </row>
+    <row r="100" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I100"/>
+      <c r="J100"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
